--- a/database/tasks.xlsx
+++ b/database/tasks.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Не выполнено</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Выполнено</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Не выполнено</t>
         </is>
       </c>
     </row>

--- a/database/tasks.xlsx
+++ b/database/tasks.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Не указан</t>
+          <t>Не выполнено</t>
         </is>
       </c>
     </row>
